--- a/heat/熱方程.xlsx
+++ b/heat/熱方程.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\first\heat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\MATLAB\heat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C3B2FF-5897-40F6-A2D2-EDCC1EB6E25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C6DC86-8AFE-4465-BF96-89A19C156DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="2520" windowWidth="21840" windowHeight="13140" xr2:uid="{E9D75F26-A4E4-484C-83C7-8B0472794C4F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E9D75F26-A4E4-484C-83C7-8B0472794C4F}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,43 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>numerical solution</t>
-  </si>
-  <si>
-    <t>analytical solution</t>
-  </si>
-  <si>
-    <t>t=2</t>
+    <t>Order</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>N=20</t>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>N=40</t>
+    <t>L_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>N=80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Error(h), h=1/20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Error(h), h=1/40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Error(h), h=1/80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Order</t>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -94,7 +72,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -118,27 +96,93 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -148,8 +192,25 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -160,7 +221,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -173,19 +234,31 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -502,27 +575,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB876472-BCC3-48BA-836F-6314BAA39CC7}">
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="23" max="23" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -540,29 +612,26 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>20</v>
       </c>
       <c r="B2" s="1">
-        <v>-1.0720997735198499E-3</v>
-      </c>
-      <c r="C2" s="5">
-        <v>2.28262592379083</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+        <v>4.78379707501348E-4</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -570,18 +639,18 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1.65737921427418E-17</v>
-      </c>
-      <c r="C3" s="6"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.05580001642989E-4</v>
+      </c>
+      <c r="C3" s="9">
+        <f>LOG(B2/B3)/LOG(2)</f>
+        <v>2.1798195992500173</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -598,18 +667,19 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1.0720997735198701E-3</v>
-      </c>
-      <c r="C4" s="7"/>
+      <c r="W3" s="4"/>
+    </row>
+    <row r="4" spans="1:23" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
+        <v>80</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2.7217906779393001E-5</v>
+      </c>
+      <c r="C4" s="12">
+        <f>LOG(B3/B4)/LOG(2)</f>
+        <v>1.955708569270028</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -626,168 +696,57 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-2.4932413624774799E-4</v>
-      </c>
-      <c r="C7" s="8">
-        <v>2.24912655977205</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1.65737921427418E-17</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4">
-        <v>2.4932413624776501E-4</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="4">
-        <v>-6.1089240142764598E-5</v>
-      </c>
-      <c r="C12" s="8">
-        <v>2.2143121479283701</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4">
-        <v>1.65737921427418E-17</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4">
-        <v>6.10892401427812E-5</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="G14" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C12:C14"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
